--- a/data/incidents.xlsx
+++ b/data/incidents.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8485,44 +8485,6 @@
         <v/>
       </c>
     </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>6f7be3c2-7ece-4cf0-bec0-1a6aa6130c5a</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C1000" t="inlineStr">
-        <is>
-          <t>Riku</t>
-        </is>
-      </c>
-      <c r="D1000" t="inlineStr">
-        <is>
-          <t>Traffic</t>
-        </is>
-      </c>
-      <c r="E1000" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="F1000" s="4" t="n">
-        <v>45820.14576801594</v>
-      </c>
-      <c r="G1000" s="4" t="n">
-        <v>45820.1874346826</v>
-      </c>
-      <c r="H1000" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I1000">
     <cfRule type="expression" priority="1" dxfId="0">

--- a/data/incidents.xlsx
+++ b/data/incidents.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I999"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8485,6 +8485,44 @@
         <v/>
       </c>
     </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>3e572f1e-c6a8-41ea-b21b-28acdd585cdf</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>Riku</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>Traffic</t>
+        </is>
+      </c>
+      <c r="E1000" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+      <c r="F1000" s="4" t="n">
+        <v>45820.67373396213</v>
+      </c>
+      <c r="G1000" s="4" t="n">
+        <v>45820.7154006288</v>
+      </c>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I1000">
     <cfRule type="expression" priority="1" dxfId="0">

--- a/data/incidents.xlsx
+++ b/data/incidents.xlsx
@@ -92,7 +92,7 @@
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm"/>
     <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +103,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -562,28 +555,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,118 +588,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,7 +1074,7 @@
   <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
